--- a/EXCEL_TASKS_24.01.26.xlsx
+++ b/EXCEL_TASKS_24.01.26.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\JIYA GITHUB\DATA-ANALYTICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\Jiya_Github\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3411FEC-7336-470B-BB0C-9DE5EA0A2DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC75DD79-695A-4002-AF48-A786BF66B58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D78211D-CBF0-46B4-A806-0E5A1AD6D8F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{1D78211D-CBF0-46B4-A806-0E5A1AD6D8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1241,12 +1241,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1261,9 +1255,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1308,12 +1299,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,6 +1323,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,30 +1338,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1373,6 +1364,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1411,7 +1411,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="12">
     <dxf>
       <font>
         <color theme="2"/>
@@ -1517,60 +1517,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1886,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B02856-73EA-479B-9104-C04942D41228}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -1908,33 +1854,33 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="48">
         <v>32000</v>
       </c>
       <c r="E4" s="8">
@@ -1942,84 +1888,84 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="49">
         <v>45000</v>
       </c>
       <c r="E5" s="9">
         <v>44260</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="67"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="66"/>
     </row>
     <row r="6" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="48">
         <v>38000</v>
       </c>
       <c r="E6" s="8">
         <v>44030</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="49">
         <v>52000</v>
       </c>
       <c r="E7" s="9">
         <v>43779</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
       <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="48">
         <v>30000</v>
       </c>
       <c r="E8" s="8">
@@ -2032,16 +1978,16 @@
       <c r="N8" s="72"/>
     </row>
     <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="50">
         <v>42683</v>
       </c>
       <c r="E9" s="9">
@@ -2049,16 +1995,16 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="50">
         <v>26323</v>
       </c>
       <c r="E10" s="8">
@@ -2066,34 +2012,34 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="50">
         <v>31100</v>
       </c>
       <c r="E11" s="9">
         <v>44222</v>
       </c>
-      <c r="P11" s="64"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="1:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="50">
         <v>43121</v>
       </c>
       <c r="E12" s="9">
@@ -2102,35 +2048,35 @@
       <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="50">
         <v>28361</v>
       </c>
       <c r="E13" s="9">
         <v>43831</v>
       </c>
-      <c r="L13" s="62"/>
+      <c r="L13" s="58"/>
       <c r="O13" s="33"/>
     </row>
     <row r="14" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="50">
         <v>51772</v>
       </c>
       <c r="E14" s="9">
@@ -2138,16 +2084,16 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="50">
         <v>43971</v>
       </c>
       <c r="E15" s="9">
@@ -2156,16 +2102,16 @@
       <c r="O15" s="33"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="50">
         <v>54169</v>
       </c>
       <c r="E16" s="8">
@@ -2173,34 +2119,34 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="50">
         <v>35185</v>
       </c>
       <c r="E17" s="8">
         <v>43908</v>
       </c>
-      <c r="X17" s="63"/>
+      <c r="X17" s="59"/>
     </row>
     <row r="18" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="50">
         <v>35763</v>
       </c>
       <c r="E18" s="8">
@@ -2208,16 +2154,16 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="50">
         <v>29295</v>
       </c>
       <c r="E19" s="8">
@@ -2225,16 +2171,16 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="50">
         <v>27794</v>
       </c>
       <c r="E20" s="8">
@@ -2242,16 +2188,16 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="50">
         <v>40955</v>
       </c>
       <c r="E21" s="8">
@@ -2259,16 +2205,16 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="50">
         <v>37956</v>
       </c>
       <c r="E22" s="8">
@@ -2289,7 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA6A905-5878-4175-AE3A-00108D7BADA0}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8:Q15"/>
     </sheetView>
   </sheetViews>
@@ -2299,67 +2245,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="47">
         <v>28000</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="47">
         <v>34000</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="47">
         <v>51000</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="47">
         <v>47000</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="47">
         <v>29000</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="47">
         <v>44278</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="47">
         <v>36604</v>
       </c>
       <c r="N8" s="94" t="s">
@@ -2370,10 +2316,10 @@
       <c r="Q8" s="87"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="47">
         <v>56107</v>
       </c>
       <c r="N9" s="88"/>
@@ -2382,10 +2328,10 @@
       <c r="Q9" s="90"/>
     </row>
     <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="47">
         <v>57541</v>
       </c>
       <c r="N10" s="88"/>
@@ -2394,10 +2340,10 @@
       <c r="Q10" s="90"/>
     </row>
     <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="47">
         <v>45225</v>
       </c>
       <c r="N11" s="88"/>
@@ -2406,10 +2352,10 @@
       <c r="Q11" s="90"/>
     </row>
     <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="47">
         <v>35505</v>
       </c>
       <c r="N12" s="88"/>
@@ -2418,10 +2364,10 @@
       <c r="Q12" s="90"/>
     </row>
     <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="47">
         <v>28886</v>
       </c>
       <c r="N13" s="88"/>
@@ -2430,10 +2376,10 @@
       <c r="Q13" s="90"/>
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="47">
         <v>35147</v>
       </c>
       <c r="N14" s="88"/>
@@ -2442,10 +2388,10 @@
       <c r="Q14" s="90"/>
     </row>
     <row r="15" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="47">
         <v>44268</v>
       </c>
       <c r="N15" s="91"/>
@@ -2454,50 +2400,50 @@
       <c r="Q15" s="93"/>
     </row>
     <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="47">
         <v>53220</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="47">
         <v>37180</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="47">
         <v>22599</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="47">
         <v>36648</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="47">
         <v>51541</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="47">
         <v>25846</v>
       </c>
     </row>
@@ -2538,7 +2484,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,24 +2494,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2610,13 +2556,13 @@
       <c r="D6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="77" t="s">
+      <c r="P6" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="79"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="75"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -2631,11 +2577,11 @@
       <c r="D7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="81"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="78"/>
     </row>
     <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2646,16 +2592,16 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">RANDBETWEEN(20000,65000)</f>
-        <v>30973</v>
+        <v>22015</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="81"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="78"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -2666,16 +2612,16 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" ref="C9:C23" ca="1" si="0">RANDBETWEEN(20000,65000)</f>
-        <v>35917</v>
+        <v>32778</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="81"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="78"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -2686,16 +2632,16 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>55423</v>
+        <v>21873</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="81"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -2706,16 +2652,16 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>54209</v>
+        <v>23701</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="81"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="78"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -2726,16 +2672,16 @@
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>54688</v>
+        <v>55730</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="81"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="78"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -2746,16 +2692,16 @@
       </c>
       <c r="C13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>63097</v>
+        <v>64175</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="84"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="81"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -2766,7 +2712,7 @@
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>47040</v>
+        <v>62337</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>63</v>
@@ -2781,7 +2727,7 @@
       </c>
       <c r="C15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24717</v>
+        <v>26705</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>54</v>
@@ -2796,7 +2742,7 @@
       </c>
       <c r="C16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>58113</v>
+        <v>54189</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>57</v>
@@ -2811,7 +2757,7 @@
       </c>
       <c r="C17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>61566</v>
+        <v>53184</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>60</v>
@@ -2826,7 +2772,7 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>39424</v>
+        <v>22189</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>54</v>
@@ -2841,7 +2787,7 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>61530</v>
+        <v>48712</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>57</v>
@@ -2856,7 +2802,7 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>49219</v>
+        <v>38088</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>60</v>
@@ -2871,7 +2817,7 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32720</v>
+        <v>29763</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>63</v>
@@ -2886,7 +2832,7 @@
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>37799</v>
+        <v>27888</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>54</v>
@@ -2901,7 +2847,7 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>49486</v>
+        <v>29376</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>57</v>
@@ -2914,6 +2860,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2922,7 +2869,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:W9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,30 +2879,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="43" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2970,7 +2917,7 @@
       <c r="E2" s="16">
         <v>74</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="63">
         <f>SUM(C2:E2)</f>
         <v>234</v>
       </c>
@@ -2980,7 +2927,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75">
+      <c r="A3" s="62">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -2995,7 +2942,7 @@
       <c r="E3" s="17">
         <v>68</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="63">
         <f t="shared" ref="F3:F21" si="0">SUM(C3:E3)</f>
         <v>203</v>
       </c>
@@ -3003,16 +2950,16 @@
         <f t="shared" ref="G3:G21" si="1">F3/300</f>
         <v>0.67666666666666664</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="79"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="75"/>
     </row>
     <row r="4" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74">
+      <c r="A4" s="61">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -3027,7 +2974,7 @@
       <c r="E4" s="16">
         <v>92</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="63">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
@@ -3035,14 +2982,14 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="S4" s="80"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="81"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="78"/>
     </row>
     <row r="5" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75">
+      <c r="A5" s="62">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -3057,7 +3004,7 @@
       <c r="E5" s="17">
         <v>38</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="63">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
@@ -3065,14 +3012,14 @@
         <f t="shared" si="1"/>
         <v>0.37666666666666665</v>
       </c>
-      <c r="S5" s="80"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="81"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74">
+      <c r="A6" s="61">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -3087,7 +3034,7 @@
       <c r="E6" s="16">
         <v>58</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="63">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
@@ -3095,14 +3042,14 @@
         <f t="shared" si="1"/>
         <v>0.57666666666666666</v>
       </c>
-      <c r="S6" s="80"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="81"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="78"/>
     </row>
     <row r="7" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74">
+      <c r="A7" s="61">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -3110,31 +3057,31 @@
       </c>
       <c r="C7" s="18">
         <f ca="1">RANDBETWEEN(10,90)</f>
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D7" s="19">
         <v>67</v>
       </c>
       <c r="E7" s="18">
         <f ca="1">RANDBETWEEN(20,95)</f>
-        <v>70</v>
-      </c>
-      <c r="F7" s="76">
+        <v>55</v>
+      </c>
+      <c r="F7" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="S7" s="80"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="81"/>
+        <v>0.59666666666666668</v>
+      </c>
+      <c r="S7" s="76"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="78"/>
     </row>
     <row r="8" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75">
+      <c r="A8" s="62">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -3142,373 +3089,373 @@
       </c>
       <c r="C8" s="18">
         <f t="shared" ref="C8:C20" ca="1" si="2">RANDBETWEEN(10,90)</f>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" ref="D8:E21" ca="1" si="3">RANDBETWEEN(20,95)</f>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="F8" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="S8" s="76"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="78"/>
+    </row>
+    <row r="9" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F9" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66333333333333333</v>
+      </c>
+      <c r="S9" s="79"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="81"/>
+    </row>
+    <row r="10" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="62">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="F10" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="76">
+      <c r="C11" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="F12" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F13" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F14" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="F15" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29666666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="F16" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57666666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="62">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="F18" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="F19" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="62">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="F20" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>149</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G20" s="15">
         <f t="shared" ca="1" si="1"/>
         <v>0.49666666666666665</v>
       </c>
-      <c r="S8" s="80"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="81"/>
-    </row>
-    <row r="9" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="D9" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="E9" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="F9" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="G9" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.71666666666666667</v>
-      </c>
-      <c r="S9" s="82"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="84"/>
-    </row>
-    <row r="10" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="D10" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="E10" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="F10" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>232</v>
-      </c>
-      <c r="G10" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.77333333333333332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="D11" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="E11" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="F11" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>177</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="D12" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="E12" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>93</v>
-      </c>
-      <c r="F12" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.48666666666666669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="D13" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="E13" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="F13" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>172</v>
-      </c>
-      <c r="G13" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.57333333333333336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="D14" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="E14" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="F14" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>191</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63666666666666671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="D15" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="E15" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="F15" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5033333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="E16" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="F16" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="G16" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="D17" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="E17" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="F17" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>178</v>
-      </c>
-      <c r="G17" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.59333333333333338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="D18" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="E18" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="F18" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="G18" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.73666666666666669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="D19" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="E19" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="F19" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>231</v>
-      </c>
-      <c r="G19" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="D20" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="E20" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="F20" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="G20" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5033333333333333</v>
-      </c>
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74">
+      <c r="A21" s="61">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -3519,19 +3466,19 @@
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="F21" s="76">
+        <v>56</v>
+      </c>
+      <c r="F21" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50666666666666671</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3494,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:U10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3558,13 +3505,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3600,13 +3547,13 @@
       <c r="C4" s="24">
         <v>8000</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="79"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
     </row>
     <row r="5" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -3618,11 +3565,11 @@
       <c r="C5" s="27">
         <v>32000</v>
       </c>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="78"/>
     </row>
     <row r="6" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -3634,11 +3581,11 @@
       <c r="C6" s="24">
         <v>15000</v>
       </c>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="81"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="78"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
@@ -3650,11 +3597,11 @@
       <c r="C7" s="28">
         <v>22148</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="81"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="78"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -3666,11 +3613,11 @@
       <c r="C8" s="28">
         <v>29939</v>
       </c>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="81"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="78"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -3682,11 +3629,11 @@
       <c r="C9" s="28">
         <v>23637</v>
       </c>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="81"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="78"/>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
@@ -3698,11 +3645,11 @@
       <c r="C10" s="28">
         <v>22552</v>
       </c>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="81"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
@@ -3880,7 +3827,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:T7"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,13 +3838,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3922,20 +3869,20 @@
       <c r="C3" s="27">
         <v>38000</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="21">
         <v>221657</v>
       </c>
-      <c r="Q3" s="77" t="s">
+      <c r="Q3" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="79"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="75"/>
     </row>
     <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -3947,18 +3894,18 @@
       <c r="C4" s="29">
         <v>28454</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="21">
         <v>243097</v>
       </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="81"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="78"/>
     </row>
     <row r="5" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -3970,18 +3917,18 @@
       <c r="C5" s="29">
         <v>33205</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="21">
         <v>260757</v>
       </c>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
@@ -3993,10 +3940,10 @@
       <c r="C6" s="29">
         <v>48337</v>
       </c>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="81"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="78"/>
     </row>
     <row r="7" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
@@ -4008,10 +3955,10 @@
       <c r="C7" s="29">
         <v>31661</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="84"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="81"/>
     </row>
     <row r="8" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -4173,7 +4120,7 @@
       <c r="B23" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="37">
         <v>19</v>
       </c>
     </row>
@@ -4196,7 +4143,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:R12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,27 +4154,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -4247,7 +4194,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -4267,7 +4214,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -4287,7 +4234,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -4313,7 +4260,7 @@
       <c r="R5" s="87"/>
     </row>
     <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -4337,7 +4284,7 @@
       <c r="R6" s="90"/>
     </row>
     <row r="7" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -4361,7 +4308,7 @@
       <c r="R7" s="90"/>
     </row>
     <row r="8" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -4385,7 +4332,7 @@
       <c r="R8" s="90"/>
     </row>
     <row r="9" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -4409,7 +4356,7 @@
       <c r="R9" s="90"/>
     </row>
     <row r="10" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -4433,7 +4380,7 @@
       <c r="R10" s="90"/>
     </row>
     <row r="11" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -4457,7 +4404,7 @@
       <c r="R11" s="90"/>
     </row>
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="29" t="s">
@@ -4481,7 +4428,7 @@
       <c r="R12" s="93"/>
     </row>
     <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="29" t="s">
@@ -4501,7 +4448,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -4521,7 +4468,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -4541,7 +4488,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -4561,7 +4508,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="29" t="s">
@@ -4581,7 +4528,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="29" t="s">
@@ -4601,7 +4548,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -4621,7 +4568,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -4641,7 +4588,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="29" t="s">
@@ -4670,7 +4617,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="38" t="s">
         <v>130</v>
       </c>
       <c r="C24" s="20">
@@ -4691,7 +4638,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:S11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4700,10 +4647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4939,15 +4886,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="24">
@@ -4955,7 +4902,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B3" s="27">
@@ -4963,7 +4910,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>157</v>
       </c>
       <c r="B4" s="24">
@@ -4971,7 +4918,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>158</v>
       </c>
       <c r="B5" s="27">
@@ -4985,7 +4932,7 @@
       <c r="P5" s="87"/>
     </row>
     <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="24">
@@ -4997,7 +4944,7 @@
       <c r="P6" s="90"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="29">
@@ -5009,7 +4956,7 @@
       <c r="P7" s="90"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="29">
@@ -5021,7 +4968,7 @@
       <c r="P8" s="90"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="29">
@@ -5033,7 +4980,7 @@
       <c r="P9" s="90"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="29">
@@ -5045,7 +4992,7 @@
       <c r="P10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="29">
@@ -5057,7 +5004,7 @@
       <c r="P11" s="93"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>155</v>
       </c>
       <c r="B12" s="29">
@@ -5065,7 +5012,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B13" s="29">
@@ -5073,7 +5020,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>157</v>
       </c>
       <c r="B14" s="29">
@@ -5081,7 +5028,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>158</v>
       </c>
       <c r="B15" s="29">
@@ -5089,7 +5036,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="29">
@@ -5097,7 +5044,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="29">
@@ -5105,7 +5052,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B18" s="29">
@@ -5113,7 +5060,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>157</v>
       </c>
       <c r="B19" s="29">
@@ -5121,7 +5068,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="39" t="s">
         <v>158</v>
       </c>
       <c r="B20" s="29">
@@ -5129,7 +5076,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>159</v>
       </c>
       <c r="B21" s="29">
@@ -5157,27 +5104,27 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:R13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="24">
@@ -5185,10 +5132,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>162</v>
       </c>
       <c r="C3" s="27">
@@ -5196,10 +5143,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>163</v>
       </c>
       <c r="C4" s="24">
@@ -5207,10 +5154,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>164</v>
       </c>
       <c r="C5" s="27">
@@ -5218,10 +5165,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>165</v>
       </c>
       <c r="C6" s="24">
@@ -5235,10 +5182,10 @@
       <c r="R6" s="87"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="29">
@@ -5250,10 +5197,10 @@
       <c r="R7" s="90"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>162</v>
       </c>
       <c r="C8" s="29">
@@ -5265,10 +5212,10 @@
       <c r="R8" s="90"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>163</v>
       </c>
       <c r="C9" s="29">
@@ -5280,10 +5227,10 @@
       <c r="R9" s="90"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="39">
         <v>9</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>164</v>
       </c>
       <c r="C10" s="29">
@@ -5295,10 +5242,10 @@
       <c r="R10" s="90"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+      <c r="A11" s="39">
         <v>10</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="29">
@@ -5310,10 +5257,10 @@
       <c r="R11" s="90"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="39">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="29">
@@ -5325,10 +5272,10 @@
       <c r="R12" s="90"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+      <c r="A13" s="39">
         <v>12</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>162</v>
       </c>
       <c r="C13" s="29">
@@ -5340,10 +5287,10 @@
       <c r="R13" s="93"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="39">
         <v>13</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>163</v>
       </c>
       <c r="C14" s="29">
@@ -5351,10 +5298,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="39">
         <v>14</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>164</v>
       </c>
       <c r="C15" s="29">
@@ -5362,10 +5309,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="39">
         <v>15</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>165</v>
       </c>
       <c r="C16" s="29">
@@ -5373,10 +5320,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="39">
         <v>16</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C17" s="29">
@@ -5384,10 +5331,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="39">
         <v>17</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>162</v>
       </c>
       <c r="C18" s="29">
@@ -5395,10 +5342,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+      <c r="A19" s="39">
         <v>18</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>163</v>
       </c>
       <c r="C19" s="29">
@@ -5406,10 +5353,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="39">
         <v>19</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="39" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="29">
@@ -5417,10 +5364,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="39">
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>165</v>
       </c>
       <c r="C21" s="29">
